--- a/Prog-poly/Cartas de titulos de propriedades/Cartas de titulos de propriedades.xlsx
+++ b/Prog-poly/Cartas de titulos de propriedades/Cartas de titulos de propriedades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bfe3e7edb290ad4/UTFPR OneDrive/Mestrado/Jogos de Tabuleiro/Jogo de Tabuleiro Prog-poly/Cartas Empresas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bfe3e7edb290ad4/Prog-poly - Github/Prog-poly/Cartas de titulos de propriedades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{F204CA5A-614B-4748-8C77-FB97D025C2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E770531C-B593-401D-BA95-AFD246E3C542}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="14_{F204CA5A-614B-4748-8C77-FB97D025C2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CB6A02A-0B05-4121-88C1-3810D4DE3803}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{97506BEE-AB0C-44EC-B9D2-0EAF1401FBBA}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>TIPO DE DADOS PRIM.</t>
   </si>
   <si>
-    <t>DIARIA COLAB.</t>
-  </si>
-  <si>
     <t>1 COLABORADOR</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>EMPRESA IMPRESSÃO DE DADOS</t>
   </si>
   <si>
-    <t>SAIDA DE DADOS</t>
-  </si>
-  <si>
     <t>OP. RELACIONAIS</t>
   </si>
   <si>
@@ -153,34 +147,40 @@
     <t>PROCEDIMENTOS</t>
   </si>
   <si>
-    <t>EMPRESA PROCESAMENTO DE FUNÇÕES E RETORNO DE RESULTADOS</t>
-  </si>
-  <si>
-    <t>EMPRESA DE PROCEDIMENTOS IMPRISÃO DE RESULTADOS</t>
-  </si>
-  <si>
-    <t>EMPRESA DE REGISTROS PESSOAS FISICAS NOME RG CPF</t>
-  </si>
-  <si>
     <t>REGISTROS</t>
   </si>
   <si>
-    <t>EMPRESA DE VARIAVEIS NUMEROS INTEIROS</t>
-  </si>
-  <si>
-    <t>EMPRESA DE VARIAVEIS NUMEROS REAIS</t>
-  </si>
-  <si>
-    <t>EMPRESA VARIAVEIS VALORES LÓGICOS</t>
-  </si>
-  <si>
-    <t>EMPRESA VARIAVEIS DE TEXTO</t>
-  </si>
-  <si>
-    <t>EMPRESA DE VARIAVEIS E DESENVOLVIMENTO DE VETORES</t>
-  </si>
-  <si>
-    <t>EMPRESA DE VARIAVEIS E DESENVOLVIMENTO DE MATRIZES</t>
+    <t>EMPRESA PROCESSAMENTO DE FUNÇÕES E RETORNO DE RESULTADOS</t>
+  </si>
+  <si>
+    <t>EMPRESA DE PROCEDIMENTOS IMPRESSÃO DE RESULTADOS</t>
+  </si>
+  <si>
+    <t>EMPRESA DE REGISTROS PESSOAS FÍSICAS NOME RG CPF</t>
+  </si>
+  <si>
+    <t>EMPRESA DE VARIÁVEIS E DESENVOLVIMENTO DE VETORES</t>
+  </si>
+  <si>
+    <t>EMPRESA DE VARIÁVEIS E DESENVOLVIMENTO DE MATRIZES</t>
+  </si>
+  <si>
+    <t>EMPRESA VARIÁVEIS DE TEXTO</t>
+  </si>
+  <si>
+    <t>EMPRESA VARIÁVEIS VALORES LÓGICOS</t>
+  </si>
+  <si>
+    <t>EMPRESA DE VARIÁVEIS NÚMEROS INTEIROS</t>
+  </si>
+  <si>
+    <t>EMPRESA DE VARIÁVEIS NÚMEROS REAIS</t>
+  </si>
+  <si>
+    <t>DIÁRIA COLAB.</t>
+  </si>
+  <si>
+    <t>SAÍDA DE DADOS</t>
   </si>
 </sst>
 </file>
@@ -414,10 +414,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,16 +453,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,50 +477,23 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F73439-19C8-4C41-BBF2-D20CE5FA5EBF}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:H86"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,48 +1227,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="39"/>
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="39"/>
+      <c r="G1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="D2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="G2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="G2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2">
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2">
         <v>10</v>
@@ -1276,21 +1276,21 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <f>B3*2</f>
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <f>E3*2</f>
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <f>H3*2</f>
@@ -1299,21 +1299,21 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <f>B4*2</f>
         <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
         <f>E4*2</f>
         <v>48</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
         <f>H4*2</f>
@@ -1322,21 +1322,21 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <f>B5*2</f>
         <v>128</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <f>E5*2</f>
         <v>96</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
         <f>H5*2</f>
@@ -1345,21 +1345,21 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <f>B6*1.5</f>
         <v>192</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <f>E6*1.5</f>
         <v>144</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2">
         <f>H6*1.5</f>
@@ -1368,21 +1368,21 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <f>B7*1.5</f>
         <v>288</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <f>E7*1.5</f>
         <v>216</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2">
         <f>H7*1.5</f>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4">
         <v>100</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4">
         <v>100</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="4">
         <v>100</v>
@@ -1411,21 +1411,21 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6">
         <f>AVERAGE(B3:B8)</f>
         <v>120</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6">
         <f>AVERAGE(E3:E8)</f>
         <v>90</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="6">
         <f>AVERAGE(H3:H8)</f>
@@ -1441,48 +1441,48 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="39"/>
+      <c r="D12" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="E12" s="39"/>
+      <c r="G12" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="D13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="G13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="16"/>
+      <c r="A13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="D13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="G13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H14" s="2">
         <v>11</v>
@@ -1490,21 +1490,21 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
         <f>B14*2</f>
         <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <f>E14*2</f>
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <f>H14*2</f>
@@ -1513,21 +1513,21 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
         <f>B15*2</f>
         <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2">
         <f>E15*2</f>
         <v>56</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2">
         <f>H15*2</f>
@@ -1536,21 +1536,21 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2">
         <f>B16*2</f>
         <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2">
         <f>E16*2</f>
         <v>112</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2">
         <f>H16*2</f>
@@ -1559,21 +1559,21 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2">
         <f>B17*1.5</f>
         <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2">
         <f>E17*1.5</f>
         <v>168</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2">
         <f>H17*1.5</f>
@@ -1582,21 +1582,21 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
         <f>B18*1.5</f>
         <v>234</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2">
         <f>E18*1.5</f>
         <v>252</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2">
         <f>H18*1.5</f>
@@ -1605,19 +1605,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="4">
         <v>100</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="4">
         <v>100</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" s="4">
         <v>100</v>
@@ -1625,21 +1625,21 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B14:B19)</f>
         <v>97.5</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E14:E19)</f>
         <v>105</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="6">
         <f>AVERAGE(H14:H19)</f>
@@ -1655,48 +1655,48 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="D23" s="17" t="s">
+      <c r="A23" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="D23" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="G23" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="D24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="G24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="G23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="D24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="G24" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2">
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2">
         <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H25" s="2">
         <v>25</v>
@@ -1704,21 +1704,21 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2">
         <f>B25*2</f>
         <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
         <f>E25*2</f>
         <v>42</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
         <f>H25*2</f>
@@ -1727,21 +1727,21 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2">
         <f>B26*2</f>
         <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2">
         <f>E26*2</f>
         <v>84</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="2">
         <f>H26*2</f>
@@ -1750,21 +1750,21 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2">
         <f>B27*2</f>
         <v>160</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2">
         <f>E27*2</f>
         <v>168</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2">
         <f>H27*2</f>
@@ -1773,21 +1773,21 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2">
         <f>B28*1.5</f>
         <v>240</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2">
         <f>E28*1.5</f>
         <v>252</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" s="2">
         <f>H28*1.5</f>
@@ -1796,21 +1796,21 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2">
         <f>B29*1.5</f>
         <v>360</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2">
         <f>E29*1.5</f>
         <v>378</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H30" s="2">
         <f>H29*1.5</f>
@@ -1819,19 +1819,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="4">
         <v>100</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="4">
         <v>100</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H31" s="4">
         <v>100</v>
@@ -1839,21 +1839,21 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="6">
         <f>AVERAGE(B25:B30)</f>
         <v>150</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="6">
         <f>AVERAGE(E25:E30)</f>
         <v>157.5</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="6">
         <f>AVERAGE(H25:H30)</f>
@@ -1869,48 +1869,48 @@
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="D34" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="G34" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="31"/>
+    </row>
+    <row r="35" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="D35" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="D34" s="21" t="s">
+      <c r="E35" s="25"/>
+      <c r="G35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="G34" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="D35" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="G35" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2">
         <v>24</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2">
         <v>22</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H36" s="2">
         <v>23</v>
@@ -1918,21 +1918,21 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="2">
         <f>B36*2</f>
         <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2">
         <f>E36*2</f>
         <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
         <f>H36*2</f>
@@ -1941,21 +1941,21 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="2">
         <f>B37*2</f>
         <v>96</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2">
         <f>E37*2</f>
         <v>88</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="2">
         <f>H37*2</f>
@@ -1964,21 +1964,21 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="2">
         <f>B38*2</f>
         <v>192</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2">
         <f>E38*2</f>
         <v>176</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="2">
         <f>H38*2</f>
@@ -1987,21 +1987,21 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2">
         <f>B39*1.5</f>
         <v>288</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="2">
         <f>E39*1.5</f>
         <v>264</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" s="2">
         <f>H39*1.5</f>
@@ -2010,21 +2010,21 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="2">
         <f>B40*1.5</f>
         <v>432</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="2">
         <f>E40*1.5</f>
         <v>396</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H41" s="2">
         <f>H40*1.5</f>
@@ -2033,19 +2033,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="4">
         <v>100</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" s="4">
         <v>100</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H42" s="4">
         <v>100</v>
@@ -2053,21 +2053,21 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="6">
         <f>AVERAGE(B36:B41)</f>
         <v>180</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="6">
         <f>AVERAGE(E36:E41)</f>
         <v>165</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H43" s="6">
         <f>AVERAGE(H36:H41)</f>
@@ -2075,50 +2075,50 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="22"/>
+      <c r="A44" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="31"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="33"/>
+    </row>
+    <row r="45" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="D45" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="G45" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="24"/>
-    </row>
-    <row r="45" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="D45" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="G45" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="16"/>
+      <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>26</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E46" s="2">
         <v>26</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H46" s="2">
         <v>28</v>
@@ -2126,21 +2126,21 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="2">
         <f>B46*2</f>
         <v>52</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2">
         <f>E46*2</f>
         <v>52</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2">
         <f>H46*2</f>
@@ -2149,21 +2149,21 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" s="2">
         <f>B47*2</f>
         <v>104</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2">
         <f>E47*2</f>
         <v>104</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="2">
         <f>H47*2</f>
@@ -2172,21 +2172,21 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="2">
         <f>B48*2</f>
         <v>208</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="2">
         <f>E48*2</f>
         <v>208</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49" s="2">
         <f>H48*2</f>
@@ -2195,21 +2195,21 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="2">
         <f>B49*1.5</f>
         <v>312</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" s="2">
         <f>E49*1.5</f>
         <v>312</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50" s="2">
         <f>H49*1.5</f>
@@ -2218,21 +2218,21 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="2">
         <f>B50*1.5</f>
         <v>468</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" s="2">
         <f>E50*1.5</f>
         <v>468</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H51" s="2">
         <f>H50*1.5</f>
@@ -2241,19 +2241,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="4">
         <v>100</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52" s="4">
         <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H52" s="4">
         <v>100</v>
@@ -2261,21 +2261,21 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" s="6">
         <f>AVERAGE(B46:B51)</f>
         <v>195</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="6">
         <f>AVERAGE(E46:E51)</f>
         <v>195</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" s="6">
         <f>AVERAGE(H46:H51)</f>
@@ -2291,50 +2291,50 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="29"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="25" t="s">
+      <c r="H55" s="29"/>
+    </row>
+    <row r="56" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H55" s="26"/>
-    </row>
-    <row r="56" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="B56" s="25"/>
+      <c r="D56" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="D56" s="15" t="s">
+      <c r="E56" s="25"/>
+      <c r="G56" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="G56" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="16"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B57" s="2">
         <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E57" s="2">
         <v>30</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H57" s="2">
         <v>32</v>
@@ -2342,21 +2342,21 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="2">
         <f>B57*2</f>
         <v>60</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="2">
         <f>E57*2</f>
         <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="2">
         <f>H57*2</f>
@@ -2365,21 +2365,21 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" s="2">
         <f>B58*2</f>
         <v>120</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2">
         <f>E58*2</f>
         <v>120</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" s="2">
         <f>H58*2</f>
@@ -2388,21 +2388,21 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" s="2">
         <f>B59*2</f>
         <v>240</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="2">
         <f>E59*2</f>
         <v>240</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" s="2">
         <f>H59*2</f>
@@ -2411,21 +2411,21 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" s="2">
         <f>B60*1.5</f>
         <v>360</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61" s="2">
         <f>E60*1.5</f>
         <v>360</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H61" s="2">
         <f>H60*1.5</f>
@@ -2434,21 +2434,21 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="2">
         <f>B61*1.5</f>
         <v>540</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62" s="2">
         <f>E61*1.5</f>
         <v>540</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H62" s="2">
         <f>H61*1.5</f>
@@ -2457,19 +2457,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="4">
         <v>100</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" s="4">
         <v>100</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H63" s="4">
         <v>100</v>
@@ -2477,21 +2477,21 @@
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" s="6">
         <f>AVERAGE(B57:B62)</f>
         <v>225</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E64" s="6">
         <f>AVERAGE(E57:E62)</f>
         <v>225</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H64" s="6">
         <f>AVERAGE(H57:H62)</f>
@@ -2507,50 +2507,50 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="27"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="28"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="29" t="s">
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="30"/>
-    </row>
-    <row r="67" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="B67" s="25"/>
+      <c r="D67" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="D67" s="15" t="s">
+      <c r="E67" s="25"/>
+      <c r="G67" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="G67" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="16"/>
+      <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B68" s="2">
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E68" s="2">
         <v>9</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H68" s="2">
         <v>35</v>
@@ -2558,21 +2558,21 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" s="2">
         <f>B68*2</f>
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="2">
         <f>E68*2</f>
         <v>18</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="2">
         <f>H68*2</f>
@@ -2581,21 +2581,21 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70" s="2">
         <f>B69*2</f>
         <v>24</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2">
         <f>E69*2</f>
         <v>36</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" s="2">
         <f>H69*2</f>
@@ -2604,21 +2604,21 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" s="2">
         <f>B70*2</f>
         <v>48</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71" s="2">
         <f>E70*2</f>
         <v>72</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" s="2">
         <f>H70*2</f>
@@ -2627,21 +2627,21 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" s="2">
         <f>B71*1.5</f>
         <v>72</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" s="2">
         <f>E71*1.5</f>
         <v>108</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H72" s="2">
         <f>H71*1.5</f>
@@ -2650,21 +2650,21 @@
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73" s="2">
         <f>B72*1.5</f>
         <v>108</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73" s="2">
         <f>E72*1.5</f>
         <v>162</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H73" s="2">
         <f>H72*1.5</f>
@@ -2673,19 +2673,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" s="4">
         <v>100</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" s="4">
         <v>100</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H74" s="4">
         <v>100</v>
@@ -2693,21 +2693,21 @@
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" s="6">
         <f>AVERAGE(B68:B73)</f>
         <v>45</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75" s="6">
         <f>AVERAGE(E68:E73)</f>
         <v>67.5</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H75" s="6">
         <f>AVERAGE(H68:H73)</f>
@@ -2723,20 +2723,20 @@
       <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="30"/>
+      <c r="A77" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="23"/>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
       <c r="G77" s="3"/>
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="16"/>
+      <c r="A78" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="25"/>
       <c r="D78" s="1"/>
       <c r="E78" s="2"/>
       <c r="G78" s="1"/>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B79" s="2">
         <v>40</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="2">
         <f>B79*2</f>
@@ -2769,100 +2769,100 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81" s="2">
         <f>B80*2</f>
         <v>160</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="G81" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="34"/>
-      <c r="G81" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="34"/>
+      <c r="H81" s="19"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82" s="2">
         <f>B81*2</f>
         <v>320</v>
       </c>
-      <c r="D82" s="35"/>
-      <c r="E82" s="36"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="36"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" s="2">
         <f>B82*1.5</f>
         <v>480</v>
       </c>
-      <c r="D83" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="32"/>
-      <c r="G83" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" s="32"/>
+      <c r="D83" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="21"/>
+      <c r="G83" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="21"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84" s="2">
         <f>B83*1.5</f>
         <v>720</v>
       </c>
-      <c r="D84" s="37" t="s">
-        <v>19</v>
+      <c r="D84" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="G84" s="37" t="s">
-        <v>19</v>
+      <c r="G84" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85" s="4">
         <v>100</v>
       </c>
-      <c r="D85" s="37"/>
+      <c r="D85" s="13"/>
       <c r="E85" s="2">
         <v>40</v>
       </c>
-      <c r="G85" s="37"/>
+      <c r="G85" s="13"/>
       <c r="H85" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" s="6">
         <f>AVERAGE(B79:B84)</f>
         <v>300</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86" s="6">
         <v>75</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H86" s="6">
         <v>100</v>
@@ -2901,84 +2901,84 @@
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="19"/>
+      <c r="D91" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="D91" s="33" t="s">
+      <c r="E91" s="19"/>
+      <c r="G91" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="34"/>
-      <c r="G91" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" s="34"/>
+      <c r="H91" s="19"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="35"/>
-      <c r="B92" s="36"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="36"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="36"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="17"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="17"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="21"/>
+      <c r="D93" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="21"/>
+      <c r="G93" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="21"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="32"/>
-      <c r="D93" s="31" t="s">
+      <c r="B94" s="2"/>
+      <c r="D94" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="32"/>
-      <c r="G93" s="31" t="s">
+      <c r="E94" s="2"/>
+      <c r="G94" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H93" s="32"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="D94" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="G94" s="37" t="s">
-        <v>19</v>
-      </c>
       <c r="H94" s="2"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="2">
         <v>50</v>
       </c>
-      <c r="D95" s="37"/>
+      <c r="D95" s="13"/>
       <c r="E95" s="2">
         <v>40</v>
       </c>
-      <c r="G95" s="37"/>
+      <c r="G95" s="13"/>
       <c r="H95" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="6">
         <v>100</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96" s="6">
         <v>75</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H96" s="6">
         <v>75</v>
@@ -3019,61 +3019,61 @@
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="8"/>
-      <c r="D101" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="39"/>
+      <c r="D101" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="15"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B102" s="34"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39"/>
+      <c r="A102" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="19"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="36"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="36"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="17"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="17"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B104" s="32"/>
-      <c r="D104" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="32"/>
+      <c r="A104" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="21"/>
+      <c r="D104" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="21"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
-        <v>19</v>
+      <c r="A105" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="D105" s="37" t="s">
-        <v>19</v>
+      <c r="D105" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E105" s="2"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
     <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="2">
         <v>60</v>
       </c>
-      <c r="D106" s="37"/>
+      <c r="D106" s="13"/>
       <c r="E106" s="2">
         <v>55</v>
       </c>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107" s="6">
         <v>120</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" s="6">
         <v>110</v>
@@ -3098,15 +3098,48 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="D101:E103"/>
-    <mergeCell ref="A102:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:H67"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="G93:H93"/>
@@ -3121,48 +3154,15 @@
     <mergeCell ref="A91:B92"/>
     <mergeCell ref="D91:E92"/>
     <mergeCell ref="G91:H92"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="D101:E103"/>
+    <mergeCell ref="A102:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="D104:E104"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
